--- a/simulation_data/iterative_algorithm/i_error_level_14_percent_water_80.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_14_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.37653176058438</v>
+        <v>86.86288823278801</v>
       </c>
       <c r="D2" t="n">
-        <v>24.58158185046933</v>
+        <v>22.294871872068</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>90.44045762157106</v>
+        <v>89.39720721890086</v>
       </c>
       <c r="D3" t="n">
-        <v>24.6972484103922</v>
+        <v>19.65915041639204</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>85.45391679310978</v>
+        <v>87.73719753352282</v>
       </c>
       <c r="D4" t="n">
-        <v>25.88091617892327</v>
+        <v>20.73293280478403</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>90.79421114270156</v>
+        <v>84.11412929718556</v>
       </c>
       <c r="D5" t="n">
-        <v>26.6555153038248</v>
+        <v>25.11563963722652</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>87.34938659592217</v>
+        <v>85.40672885331541</v>
       </c>
       <c r="D6" t="n">
-        <v>25.41300285437013</v>
+        <v>23.03407689345944</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>86.01919130149119</v>
+        <v>87.71552136694427</v>
       </c>
       <c r="D7" t="n">
-        <v>25.19656370258015</v>
+        <v>22.29864764739947</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>82.70037200210282</v>
+        <v>82.26920837248812</v>
       </c>
       <c r="D8" t="n">
-        <v>26.07104967305944</v>
+        <v>23.92552703356585</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>78.9064380140705</v>
+        <v>83.27558479729754</v>
       </c>
       <c r="D9" t="n">
-        <v>21.8442156945994</v>
+        <v>21.93360285407793</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>80.10333411556273</v>
+        <v>81.44331647752416</v>
       </c>
       <c r="D10" t="n">
-        <v>25.70396601096431</v>
+        <v>24.11590111649578</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>82.04555209292066</v>
+        <v>80.07586083941806</v>
       </c>
       <c r="D11" t="n">
-        <v>25.9712461357427</v>
+        <v>21.70630501076364</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>81.44971066138645</v>
+        <v>78.41781435994795</v>
       </c>
       <c r="D12" t="n">
-        <v>24.06868616893117</v>
+        <v>24.44755651513769</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.36197009106243</v>
+        <v>83.11471931737795</v>
       </c>
       <c r="D13" t="n">
-        <v>26.39262559269477</v>
+        <v>22.41201006905835</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>75.98902222821602</v>
+        <v>77.80535622806002</v>
       </c>
       <c r="D14" t="n">
-        <v>23.33525378838157</v>
+        <v>25.8559893095402</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>81.00448342569125</v>
+        <v>75.76676267300354</v>
       </c>
       <c r="D15" t="n">
-        <v>28.4427453971957</v>
+        <v>23.11672877639408</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.56803465408494</v>
+        <v>76.34340344604391</v>
       </c>
       <c r="D16" t="n">
-        <v>26.75160601766714</v>
+        <v>22.44740595432765</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>78.15663412583854</v>
+        <v>77.51016663212108</v>
       </c>
       <c r="D17" t="n">
-        <v>27.80450405145958</v>
+        <v>27.24996249898274</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.544722242462</v>
+        <v>70.98111642220476</v>
       </c>
       <c r="D18" t="n">
-        <v>24.06674239063172</v>
+        <v>25.17395109667534</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.15046527360953</v>
+        <v>73.88325171157271</v>
       </c>
       <c r="D19" t="n">
-        <v>26.42126434001623</v>
+        <v>22.57756771196076</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>70.87803057672927</v>
+        <v>70.50611002337429</v>
       </c>
       <c r="D20" t="n">
-        <v>24.66758187373274</v>
+        <v>21.76920146017741</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.56779120716375</v>
+        <v>70.53101912084645</v>
       </c>
       <c r="D21" t="n">
-        <v>25.16912495394289</v>
+        <v>25.17175300096258</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.23347559752068</v>
+        <v>71.75720549532157</v>
       </c>
       <c r="D22" t="n">
-        <v>25.95716420437545</v>
+        <v>23.10906566009045</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>71.7033424654676</v>
+        <v>67.62341920847298</v>
       </c>
       <c r="D23" t="n">
-        <v>26.33223522938915</v>
+        <v>25.41892386193661</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>64.13916257656584</v>
+        <v>64.11579717732872</v>
       </c>
       <c r="D24" t="n">
-        <v>23.80831300548968</v>
+        <v>24.21934690972036</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.59617126892982</v>
+        <v>67.84511119824089</v>
       </c>
       <c r="D25" t="n">
-        <v>27.04433533383449</v>
+        <v>24.31923663440933</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.85426798155498</v>
+        <v>65.90771909107495</v>
       </c>
       <c r="D26" t="n">
-        <v>26.79613864790709</v>
+        <v>23.26642266382916</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>67.64179258612182</v>
+        <v>64.25716039219382</v>
       </c>
       <c r="D27" t="n">
-        <v>25.88086824823376</v>
+        <v>27.7559060918524</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>69.02694817002185</v>
+        <v>61.32819169150984</v>
       </c>
       <c r="D28" t="n">
-        <v>25.39766594600536</v>
+        <v>23.12725147955308</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.20546840582287</v>
+        <v>60.79647777785337</v>
       </c>
       <c r="D29" t="n">
-        <v>26.7033916056982</v>
+        <v>23.52021772454647</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>66.73954679216456</v>
+        <v>62.67574909818555</v>
       </c>
       <c r="D30" t="n">
-        <v>22.70913476424465</v>
+        <v>23.84876458162029</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.86516928783902</v>
+        <v>59.13429029375333</v>
       </c>
       <c r="D31" t="n">
-        <v>22.97352518388287</v>
+        <v>26.6192085404634</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>62.56909507584142</v>
+        <v>57.66290967876846</v>
       </c>
       <c r="D32" t="n">
-        <v>22.65444701680276</v>
+        <v>24.7478960937994</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.42795123759119</v>
+        <v>58.66135456881046</v>
       </c>
       <c r="D33" t="n">
-        <v>25.06303827072218</v>
+        <v>23.02582785787578</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.97006277430594</v>
+        <v>57.36794686411832</v>
       </c>
       <c r="D34" t="n">
-        <v>25.21353039723758</v>
+        <v>23.26318328936166</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.78835080449852</v>
+        <v>53.89803240713493</v>
       </c>
       <c r="D35" t="n">
-        <v>21.48685525231614</v>
+        <v>25.07913422468308</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>62.08529440867454</v>
+        <v>52.7926087556543</v>
       </c>
       <c r="D36" t="n">
-        <v>24.57672885967469</v>
+        <v>25.64865820482175</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.81220379741656</v>
+        <v>55.7347550543162</v>
       </c>
       <c r="D37" t="n">
-        <v>22.60829391035156</v>
+        <v>23.16631294263993</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>47.33154580753167</v>
+        <v>53.30741567899697</v>
       </c>
       <c r="D38" t="n">
-        <v>24.87102401086399</v>
+        <v>25.7885273426768</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.53877170659214</v>
+        <v>51.89112300890352</v>
       </c>
       <c r="D39" t="n">
-        <v>24.83855368642556</v>
+        <v>24.78231052625261</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.41379356085165</v>
+        <v>51.23266006637323</v>
       </c>
       <c r="D40" t="n">
-        <v>27.95328473178898</v>
+        <v>24.60236168727499</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.53033377467595</v>
+        <v>50.45680448238669</v>
       </c>
       <c r="D41" t="n">
-        <v>21.22209304707239</v>
+        <v>26.25355055281395</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.17763633303812</v>
+        <v>47.49571257761223</v>
       </c>
       <c r="D42" t="n">
-        <v>26.03429765825298</v>
+        <v>28.07231072845556</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>53.52626342277664</v>
+        <v>51.46575465618418</v>
       </c>
       <c r="D43" t="n">
-        <v>23.02819005067137</v>
+        <v>23.9938352189058</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.30528841299905</v>
+        <v>51.23948908636022</v>
       </c>
       <c r="D44" t="n">
-        <v>25.38107914020854</v>
+        <v>23.24916894961317</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>43.75231707981423</v>
+        <v>49.55609173941744</v>
       </c>
       <c r="D45" t="n">
-        <v>24.81890425720863</v>
+        <v>25.93040580677476</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>47.76158527645343</v>
+        <v>44.86063948913125</v>
       </c>
       <c r="D46" t="n">
-        <v>22.57498385828088</v>
+        <v>23.34880757639954</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>41.15794786565697</v>
+        <v>46.04966503278619</v>
       </c>
       <c r="D47" t="n">
-        <v>23.95079265698915</v>
+        <v>23.08505567742237</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>40.34490396514401</v>
+        <v>42.37857026699989</v>
       </c>
       <c r="D48" t="n">
-        <v>25.96031765019519</v>
+        <v>25.33085407333531</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>38.65925200329407</v>
+        <v>42.6623684243195</v>
       </c>
       <c r="D49" t="n">
-        <v>23.15444737751933</v>
+        <v>25.98689052476644</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>43.05989874509893</v>
+        <v>40.27119911986367</v>
       </c>
       <c r="D50" t="n">
-        <v>25.74411384452811</v>
+        <v>25.9673666012971</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>38.00247588186701</v>
+        <v>38.36018282981429</v>
       </c>
       <c r="D51" t="n">
-        <v>26.97871688221831</v>
+        <v>19.45563989847551</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.44005314887988</v>
+        <v>37.55794671704294</v>
       </c>
       <c r="D52" t="n">
-        <v>25.19765992333589</v>
+        <v>23.39138593379285</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>42.3108040775372</v>
+        <v>38.89893018267183</v>
       </c>
       <c r="D53" t="n">
-        <v>24.47462907426539</v>
+        <v>22.42431110584508</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>32.95396815098508</v>
+        <v>37.70220879011595</v>
       </c>
       <c r="D54" t="n">
-        <v>25.87750187321496</v>
+        <v>26.18715402820851</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>40.5739485343709</v>
+        <v>33.62981715477613</v>
       </c>
       <c r="D55" t="n">
-        <v>25.67293684119457</v>
+        <v>25.17785104529566</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>32.80705075035188</v>
+        <v>30.81356666321359</v>
       </c>
       <c r="D56" t="n">
-        <v>24.44448547089356</v>
+        <v>25.5439409948193</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.83380879802854</v>
+        <v>34.6292288572068</v>
       </c>
       <c r="D57" t="n">
-        <v>22.27193325144466</v>
+        <v>25.84952049881776</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>35.1416413799119</v>
+        <v>34.59039333930006</v>
       </c>
       <c r="D58" t="n">
-        <v>24.89574738270079</v>
+        <v>23.2868759743792</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>34.52646566884184</v>
+        <v>33.30287681694331</v>
       </c>
       <c r="D59" t="n">
-        <v>23.85040069290806</v>
+        <v>27.20334006955175</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>30.597323052253</v>
+        <v>31.856235592169</v>
       </c>
       <c r="D60" t="n">
-        <v>27.80495575510864</v>
+        <v>25.21567008108016</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.81339009502298</v>
+        <v>25.10853078587248</v>
       </c>
       <c r="D61" t="n">
-        <v>26.02924702424392</v>
+        <v>25.59434950432793</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>33.17658610373776</v>
+        <v>30.66405835983671</v>
       </c>
       <c r="D62" t="n">
-        <v>22.71763319258828</v>
+        <v>20.76036067734703</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>27.2178656974624</v>
+        <v>28.46859891452138</v>
       </c>
       <c r="D63" t="n">
-        <v>26.65361141581151</v>
+        <v>24.42390850278172</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.20913974108646</v>
+        <v>28.97538523080383</v>
       </c>
       <c r="D64" t="n">
-        <v>26.45661724278027</v>
+        <v>24.12036396786631</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.94389002507024</v>
+        <v>25.92072558406687</v>
       </c>
       <c r="D65" t="n">
-        <v>27.52230887248502</v>
+        <v>26.27584187100964</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>28.51253940859853</v>
+        <v>22.14044744246558</v>
       </c>
       <c r="D66" t="n">
-        <v>24.85467201977854</v>
+        <v>23.7756258086505</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>28.68087339536925</v>
+        <v>22.20527820659819</v>
       </c>
       <c r="D67" t="n">
-        <v>23.86668928807192</v>
+        <v>25.62436457393999</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>27.71269152256554</v>
+        <v>22.26363042591928</v>
       </c>
       <c r="D68" t="n">
-        <v>26.65064184456995</v>
+        <v>26.08307811089501</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>24.72826355097561</v>
+        <v>20.00662279945637</v>
       </c>
       <c r="D69" t="n">
-        <v>26.76242363005415</v>
+        <v>24.617492143572</v>
       </c>
     </row>
   </sheetData>
